--- a/Option.CostModels/symbols/Results.xlsx
+++ b/Option.CostModels/symbols/Results.xlsx
@@ -102,9 +102,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>6 7.370965887498275E-12</t>
-  </si>
-  <si>
     <t>3 місяці</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>RMSE</t>
+  </si>
+  <si>
+    <t>Блека – Скоулза  Кокса-Росса-Рубінштейна Леі</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,15 +657,15 @@
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:N12" si="0">(F4-H4)^2</f>
+        <f t="shared" ref="N4:N11" si="0">(F4-H4)^2</f>
         <v>7.2630566223688374E-3</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O12" si="1">(F4-J4)^2</f>
+        <f t="shared" ref="O4:O11" si="1">(F4-J4)^2</f>
         <v>6.399200025015957E-3</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P12" si="2">(F4-L4)^2</f>
+        <f t="shared" ref="P4:P11" si="2">(F4-L4)^2</f>
         <v>7.2115227662264397E-3</v>
       </c>
       <c r="V4">
@@ -864,7 +864,7 @@
         <v>1.5106868569023704E-4</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <f>SUM(N3:N11)*0.09</f>
@@ -956,7 +956,7 @@
         <v>4.3030343565169408E-3</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R8">
         <f>SQRT(R7)</f>
@@ -1316,7 +1316,7 @@
         <v>1.6275019530164654</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ref="O13:O41" si="11">(F14-J14)^2</f>
+        <f t="shared" ref="O14:O41" si="11">(F14-J14)^2</f>
         <v>4.6655784000250433</v>
       </c>
       <c r="P14" s="5">
@@ -1841,7 +1841,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -1889,8 +1889,8 @@
       <c r="J23" s="5">
         <v>11.240004999999901</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>27</v>
+      <c r="K23" s="4">
+        <v>7.3709658874982698E-12</v>
       </c>
       <c r="L23" s="5">
         <v>13.808680405304001</v>
@@ -1914,9 +1914,9 @@
         <f>(G23-I23)^2</f>
         <v>13.3225</v>
       </c>
-      <c r="W23" t="e">
+      <c r="W23">
         <f>(G23-K23)^2</f>
-        <v>#VALUE!</v>
+        <v>13.32249999994619</v>
       </c>
       <c r="X23">
         <f>(G23-M23)^2</f>
@@ -2198,9 +2198,9 @@
         <f>SUM(V23:V31)*0.09</f>
         <v>34.35435166183597</v>
       </c>
-      <c r="AA27" t="e">
+      <c r="AA27">
         <f t="shared" ref="AA27" si="23">SUM(W23:W31)*0.09</f>
-        <v>#VALUE!</v>
+        <v>18.213609634927185</v>
       </c>
       <c r="AB27">
         <f t="shared" ref="AB27" si="24">SUM(X23:X31)*0.09</f>
@@ -2287,9 +2287,9 @@
         <f>SQRT(Z27)</f>
         <v>5.8612585390712777</v>
       </c>
-      <c r="AA28" t="e">
+      <c r="AA28">
         <f>SQRT(AA27)</f>
-        <v>#VALUE!</v>
+        <v>4.2677405772758945</v>
       </c>
       <c r="AB28">
         <f>SQRT(AB27)</f>
@@ -3149,6 +3149,11 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U47" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>5</v>
